--- a/CSI/Calculadora.xlsx
+++ b/CSI/Calculadora.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Google Drive\Universidad\Segundo\2º. Cuatrimestre\Criptografía y seguridad informática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E67396-D36D-442F-8E54-DE7DE8323F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3882B44-C1B3-41C0-BEC9-DD4408F0FF74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{B246D10C-6E73-4A5E-9FD8-BECA5E3BB4CF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B246D10C-6E73-4A5E-9FD8-BECA5E3BB4CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5263385-C1D4-4641-8EC6-5EEBA21B2FAE}">
   <dimension ref="B3:AV180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176:C176"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,28 +1037,28 @@
         <v>41</v>
       </c>
       <c r="Q7" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S5,Q6),Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S5,"^",Q6,"  ",Q5))</f>
+        <f>IFERROR(MOD(POWER(S5,Q6),Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",S5,"^",Q6,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S7" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S5,S6),Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S5,"^",S6,"  ",Q5))</f>
+        <f>IFERROR(MOD(POWER(S5,S6),Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",S5,"^",S6,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X7" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z5,X6),X5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z5,"^",X6,"  ",X5))</f>
+        <f>IFERROR(MOD(POWER(Z5,X6),X5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z5,"^",X6,"  ",X5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z7" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z5,Z6),X5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z5,"^",Z6,"  ",X5))</f>
+        <f>IFERROR(MOD(POWER(Z5,Z6),X5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z5,"^",Z6,"  ",X5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA7" s="4" t="s">
@@ -1168,56 +1168,56 @@
         <v>10</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C5,C6),E5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C5,"^",C6,"  ",E5))</f>
+        <f>IFERROR(MOD(POWER(C5,C6),E5), CONCATENATE("https://es.planetcalc.com/8326/","  ",C5,"^",C6,"  ",E5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C5,E6),E5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C5,"^",E6,"  ",E5))</f>
+        <f>IFERROR(MOD(POWER(C5,E6),E5), CONCATENATE("https://es.planetcalc.com/8326/","  ",C5,"^",E6,"  ",E5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L9,H6),L6), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L9,"^",H6,"  ",L6))</f>
+        <f>IFERROR(MOD(POWER(L9,H6),L6), CONCATENATE("https://es.planetcalc.com/8326/","  ",L9,"^",H6,"  ",L6))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L9,J6),L7), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L9,"^",J6,"  ",L7))</f>
+        <f>IFERROR(MOD(POWER(L9,J6),L7), CONCATENATE("https://es.planetcalc.com/8326/","  ",L9,"^",J6,"  ",L7))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S7,U5),Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S7,"^",U5,"  ",Q5))</f>
+        <f>IFERROR(MOD(POWER(S7,U5),Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",S7,"^",U5,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S10" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q7,U5),Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q7,"^",U5,"  ",Q5))</f>
+        <f>IFERROR(MOD(POWER(Q7,U5),Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q7,"^",U5,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X10" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z5,AB5),X5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z5,"^",AB5,"  ",X5))</f>
+        <f>IFERROR(MOD(POWER(Z5,AB5),X5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z5,"^",AB5,"  ",X5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z10" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z5,AB5),X5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z5,"^",AB5,"  ",X5))</f>
+        <f>IFERROR(MOD(POWER(Z5,AB5),X5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z5,"^",AB5,"  ",X5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -1239,28 +1239,28 @@
         <v>46</v>
       </c>
       <c r="Q11" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S5,U5),Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S5,"^",U5,"  ",Q5))</f>
+        <f>IFERROR(MOD(POWER(S5,U5),Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",S5,"^",U5,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S11" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S5,U5),Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S5,"^",U5,"  ",Q5))</f>
+        <f>IFERROR(MOD(POWER(S5,U5),Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",S5,"^",U5,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X11" s="7" t="str">
-        <f>IFERROR(MOD((AB7-(X6*X10))*AB6,(X5-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB7,"-(",X6,"*",X10,"))","*",AB6,"(",X5-1,")","  ",X5-1))</f>
+        <f>IFERROR(MOD((AB7-(X6*X10))*AB6,(X5-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB7,"-(",X6,"*",X10,"))","*",AB6,"(",X5-1,")","  ",X5-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z11" s="7" t="str">
-        <f>IFERROR(MOD((AB7-(Z6*X10))*AB6,(X5-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB7,"-(",Z6,"*",X10,"))","*",AB6,"(",X5-1,")","  ",X5-1))</f>
+        <f>IFERROR(MOD((AB7-(Z6*X10))*AB6,(X5-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB7,"-(",Z6,"*",X10,"))","*",AB6,"(",X5-1,")","  ",X5-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -1269,42 +1269,42 @@
         <v>12</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E10,C6),E5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E10,"^",C6,"  ",E5))</f>
+        <f>IFERROR(MOD(POWER(E10,C6),E5), CONCATENATE("https://es.planetcalc.com/8326/","  ",E10,"^",C6,"  ",E5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C10,E6),E5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C10,"^",E6,"  ",E5))</f>
+        <f>IFERROR(MOD(POWER(C10,E6),E5), CONCATENATE("https://es.planetcalc.com/8326/","  ",C10,"^",E6,"  ",E5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L11,H7),L6), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L11,"^",H7,"  ",L6))</f>
+        <f>IFERROR(MOD(POWER(L11,H7),L6), CONCATENATE("https://es.planetcalc.com/8326/","  ",L11,"^",H7,"  ",L6))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L11,J7),L7), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L11,"^",J7,"  ",L7))</f>
+        <f>IFERROR(MOD(POWER(L11,J7),L7), CONCATENATE("https://es.planetcalc.com/8326/","  ",L11,"^",J7,"  ",L7))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q12" s="7" t="str">
-        <f>IFERROR(MOD(U6*Q10,Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U6,"*",Q10,"  ",Q5))</f>
+        <f>IFERROR(MOD(U6*Q10,Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",U6,"*",Q10,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S12" s="7" t="str">
-        <f>IFERROR(MOD(U6*S10,Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U6,"*",S10,"  ",Q5))</f>
+        <f>IFERROR(MOD(U6*S10,Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",U6,"*",S10,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W12" t="s">
@@ -1354,28 +1354,28 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q11,S6),Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q11,"^",S6,"  ",Q5))</f>
+        <f>IFERROR(MOD(POWER(Q11,S6),Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q11,"^",S6,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S15" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S11,Q6),Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S11,"^",Q6,"  ",Q5))</f>
+        <f>IFERROR(MOD(POWER(S11,Q6),Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",S11,"^",Q6,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X15" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X7,X10)*POWER(X10,X11),X5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X7,"^",X10,")*",X10,"^",X11,")"," ",X5))</f>
+        <f>IFERROR(MOD(POWER(X7,X10)*POWER(X10,X11),X5), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X7,"^",X10,")*",X10,"^",X11,")"," ",X5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y15" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z15" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z7,Z10)*POWER(Z10,Z11),X5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z7,"^",Z10,")*",Z10,"^",Z11,")"," ",X5))</f>
+        <f>IFERROR(MOD(POWER(Z7,Z10)*POWER(Z10,Z11),X5), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z7,"^",Z10,")*",Z10,"^",Z11,")"," ",X5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -1384,28 +1384,28 @@
         <v>48</v>
       </c>
       <c r="Q16" s="7" t="str">
-        <f>IFERROR(MOD(Q17*Q12,Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q17,"*",Q12,"  ",Q5))</f>
+        <f>IFERROR(MOD(Q17*Q12,Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q17,"*",Q12,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S16" s="7" t="str">
-        <f>IFERROR(MOD(S17*S12,Q5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S17,"*",S12,"  ",Q5))</f>
+        <f>IFERROR(MOD(S17*S12,Q5), CONCATENATE("https://es.planetcalc.com/8326/","  ",S17,"*",S12,"  ",Q5))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X16" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z5,AB7),X5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z5,"^",AB7,"  ",X5))</f>
+        <f>IFERROR(MOD(POWER(Z5,AB7),X5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z5,"^",AB7,"  ",X5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y16" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z16" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z5,AB7),X5), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z5,"^",AB7,"  ",X5))</f>
+        <f>IFERROR(MOD(POWER(Z5,AB7),X5), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z5,"^",AB7,"  ",X5))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -1600,28 +1600,28 @@
         <v>41</v>
       </c>
       <c r="Q25" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S23,Q24),Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S23,"^",Q24,"  ",Q23))</f>
+        <f>IFERROR(MOD(POWER(S23,Q24),Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",S23,"^",Q24,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S25" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S23,S24),Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S23,"^",S24,"  ",Q23))</f>
+        <f>IFERROR(MOD(POWER(S23,S24),Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",S23,"^",S24,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X25" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z23,X24),X23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z23,"^",X24,"  ",X23))</f>
+        <f>IFERROR(MOD(POWER(Z23,X24),X23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z23,"^",X24,"  ",X23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z25" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z23,Z24),X23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z23,"^",Z24,"  ",X23))</f>
+        <f>IFERROR(MOD(POWER(Z23,Z24),X23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z23,"^",Z24,"  ",X23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA25" s="4" t="s">
@@ -1673,56 +1673,56 @@
         <v>10</v>
       </c>
       <c r="C28" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C23,C24),E23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C23,"^",C24,"  ",E23))</f>
+        <f>IFERROR(MOD(POWER(C23,C24),E23), CONCATENATE("https://es.planetcalc.com/8326/","  ",C23,"^",C24,"  ",E23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C23,E24),E23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C23,"^",E24,"  ",E23))</f>
+        <f>IFERROR(MOD(POWER(C23,E24),E23), CONCATENATE("https://es.planetcalc.com/8326/","  ",C23,"^",E24,"  ",E23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L27,H24),L24), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L27,"^",H24,"  ",L24))</f>
+        <f>IFERROR(MOD(POWER(L27,H24),L24), CONCATENATE("https://es.planetcalc.com/8326/","  ",L27,"^",H24,"  ",L24))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L27,J24),L25), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L27,"^",J24,"  ",L25))</f>
+        <f>IFERROR(MOD(POWER(L27,J24),L25), CONCATENATE("https://es.planetcalc.com/8326/","  ",L27,"^",J24,"  ",L25))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S25,U23),Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S25,"^",U23,"  ",Q23))</f>
+        <f>IFERROR(MOD(POWER(S25,U23),Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",S25,"^",U23,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S28" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q25,U23),Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q25,"^",U23,"  ",Q23))</f>
+        <f>IFERROR(MOD(POWER(Q25,U23),Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q25,"^",U23,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W28" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X28" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z23,AB23),X23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z23,"^",AB23,"  ",X23))</f>
+        <f>IFERROR(MOD(POWER(Z23,AB23),X23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z23,"^",AB23,"  ",X23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y28" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z28" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z23,AB23),X23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z23,"^",AB23,"  ",X23))</f>
+        <f>IFERROR(MOD(POWER(Z23,AB23),X23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z23,"^",AB23,"  ",X23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -1744,28 +1744,28 @@
         <v>46</v>
       </c>
       <c r="Q29" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S23,U23),Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S23,"^",U23,"  ",Q23))</f>
+        <f>IFERROR(MOD(POWER(S23,U23),Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",S23,"^",U23,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R29" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S29" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S23,U23),Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S23,"^",U23,"  ",Q23))</f>
+        <f>IFERROR(MOD(POWER(S23,U23),Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",S23,"^",U23,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W29" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X29" s="7" t="str">
-        <f>IFERROR(MOD((AB25-(X24*X28))*AB24,(X23-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB25,"-(",X24,"*",X28,"))","*",AB24,"(",X23-1,")","  ",X23-1))</f>
+        <f>IFERROR(MOD((AB25-(X24*X28))*AB24,(X23-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB25,"-(",X24,"*",X28,"))","*",AB24,"(",X23-1,")","  ",X23-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z29" s="7" t="str">
-        <f>IFERROR(MOD((AB25-(Z24*X28))*AB24,(X23-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB25,"-(",Z24,"*",X28,"))","*",AB24,"(",X23-1,")","  ",X23-1))</f>
+        <f>IFERROR(MOD((AB25-(Z24*X28))*AB24,(X23-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB25,"-(",Z24,"*",X28,"))","*",AB24,"(",X23-1,")","  ",X23-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -1774,42 +1774,42 @@
         <v>12</v>
       </c>
       <c r="C30" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E28,C24),E23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E28,"^",C24,"  ",E23))</f>
+        <f>IFERROR(MOD(POWER(E28,C24),E23), CONCATENATE("https://es.planetcalc.com/8326/","  ",E28,"^",C24,"  ",E23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C28,E24),E23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C28,"^",E24,"  ",E23))</f>
+        <f>IFERROR(MOD(POWER(C28,E24),E23), CONCATENATE("https://es.planetcalc.com/8326/","  ",C28,"^",E24,"  ",E23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L29,H25),L24), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L29,"^",H25,"  ",L24))</f>
+        <f>IFERROR(MOD(POWER(L29,H25),L24), CONCATENATE("https://es.planetcalc.com/8326/","  ",L29,"^",H25,"  ",L24))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J30" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L29,J25),L25), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L29,"^",J25,"  ",L25))</f>
+        <f>IFERROR(MOD(POWER(L29,J25),L25), CONCATENATE("https://es.planetcalc.com/8326/","  ",L29,"^",J25,"  ",L25))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q30" s="7" t="str">
-        <f>IFERROR(MOD(U24*Q28,Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U24,"*",Q28,"  ",Q23))</f>
+        <f>IFERROR(MOD(U24*Q28,Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",U24,"*",Q28,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R30" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S30" s="7" t="str">
-        <f>IFERROR(MOD(U24*S28,Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U24,"*",S28,"  ",Q23))</f>
+        <f>IFERROR(MOD(U24*S28,Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",U24,"*",S28,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W30" t="s">
@@ -1859,28 +1859,28 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q29,S24),Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q29,"^",S24,"  ",Q23))</f>
+        <f>IFERROR(MOD(POWER(Q29,S24),Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q29,"^",S24,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S33" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S29,Q24),Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S29,"^",Q24,"  ",Q23))</f>
+        <f>IFERROR(MOD(POWER(S29,Q24),Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",S29,"^",Q24,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W33" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X33" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X25,X28)*POWER(X28,X29),X23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X25,"^",X28,")*",X28,"^",X29,")"," ",X23))</f>
+        <f>IFERROR(MOD(POWER(X25,X28)*POWER(X28,X29),X23), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X25,"^",X28,")*",X28,"^",X29,")"," ",X23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z33" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z25,Z28)*POWER(Z28,Z29),X23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z25,"^",Z28,")*",Z28,"^",Z29,")"," ",X23))</f>
+        <f>IFERROR(MOD(POWER(Z25,Z28)*POWER(Z28,Z29),X23), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z25,"^",Z28,")*",Z28,"^",Z29,")"," ",X23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -1889,28 +1889,28 @@
         <v>48</v>
       </c>
       <c r="Q34" s="7" t="str">
-        <f>IFERROR(MOD(Q35*Q30,Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q35,"*",Q30,"  ",Q23))</f>
+        <f>IFERROR(MOD(Q35*Q30,Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q35,"*",Q30,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R34" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S34" s="7" t="str">
-        <f>IFERROR(MOD(S35*S30,Q23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S35,"*",S30,"  ",Q23))</f>
+        <f>IFERROR(MOD(S35*S30,Q23), CONCATENATE("https://es.planetcalc.com/8326/","  ",S35,"*",S30,"  ",Q23))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W34" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X34" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z23,AB25),X23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z23,"^",AB25,"  ",X23))</f>
+        <f>IFERROR(MOD(POWER(Z23,AB25),X23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z23,"^",AB25,"  ",X23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z34" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z23,AB25),X23), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z23,"^",AB25,"  ",X23))</f>
+        <f>IFERROR(MOD(POWER(Z23,AB25),X23), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z23,"^",AB25,"  ",X23))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -2105,28 +2105,28 @@
         <v>41</v>
       </c>
       <c r="Q43" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S41,Q42),Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S41,"^",Q42,"  ",Q41))</f>
+        <f>IFERROR(MOD(POWER(S41,Q42),Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",S41,"^",Q42,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S43" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S41,S42),Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S41,"^",S42,"  ",Q41))</f>
+        <f>IFERROR(MOD(POWER(S41,S42),Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",S41,"^",S42,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X43" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z41,X42),X41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z41,"^",X42,"  ",X41))</f>
+        <f>IFERROR(MOD(POWER(Z41,X42),X41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z41,"^",X42,"  ",X41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z43" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z41,Z42),X41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z41,"^",Z42,"  ",X41))</f>
+        <f>IFERROR(MOD(POWER(Z41,Z42),X41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z41,"^",Z42,"  ",X41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA43" s="4" t="s">
@@ -2178,56 +2178,56 @@
         <v>10</v>
       </c>
       <c r="C46" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C41,C42),E41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C41,"^",C42,"  ",E41))</f>
+        <f>IFERROR(MOD(POWER(C41,C42),E41), CONCATENATE("https://es.planetcalc.com/8326/","  ",C41,"^",C42,"  ",E41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C41,E42),E41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C41,"^",E42,"  ",E41))</f>
+        <f>IFERROR(MOD(POWER(C41,E42),E41), CONCATENATE("https://es.planetcalc.com/8326/","  ",C41,"^",E42,"  ",E41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G46" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H46" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L45,H42),L42), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L45,"^",H42,"  ",L42))</f>
+        <f>IFERROR(MOD(POWER(L45,H42),L42), CONCATENATE("https://es.planetcalc.com/8326/","  ",L45,"^",H42,"  ",L42))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J46" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L45,J42),L43), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L45,"^",J42,"  ",L43))</f>
+        <f>IFERROR(MOD(POWER(L45,J42),L43), CONCATENATE("https://es.planetcalc.com/8326/","  ",L45,"^",J42,"  ",L43))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S43,U41),Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S43,"^",U41,"  ",Q41))</f>
+        <f>IFERROR(MOD(POWER(S43,U41),Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",S43,"^",U41,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S46" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q43,U41),Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q43,"^",U41,"  ",Q41))</f>
+        <f>IFERROR(MOD(POWER(Q43,U41),Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q43,"^",U41,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W46" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X46" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z41,AB41),X41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z41,"^",AB41,"  ",X41))</f>
+        <f>IFERROR(MOD(POWER(Z41,AB41),X41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z41,"^",AB41,"  ",X41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z46" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z41,AB41),X41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z41,"^",AB41,"  ",X41))</f>
+        <f>IFERROR(MOD(POWER(Z41,AB41),X41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z41,"^",AB41,"  ",X41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -2249,28 +2249,28 @@
         <v>46</v>
       </c>
       <c r="Q47" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S41,U41),Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S41,"^",U41,"  ",Q41))</f>
+        <f>IFERROR(MOD(POWER(S41,U41),Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",S41,"^",U41,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S47" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S41,U41),Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S41,"^",U41,"  ",Q41))</f>
+        <f>IFERROR(MOD(POWER(S41,U41),Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",S41,"^",U41,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X47" s="7" t="str">
-        <f>IFERROR(MOD((AB43-(X42*X46))*AB42,(X41-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB43,"-(",X42,"*",X46,"))","*",AB42,"(",X41-1,")","  ",X41-1))</f>
+        <f>IFERROR(MOD((AB43-(X42*X46))*AB42,(X41-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB43,"-(",X42,"*",X46,"))","*",AB42,"(",X41-1,")","  ",X41-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y47" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z47" s="7" t="str">
-        <f>IFERROR(MOD((AB43-(Z42*X46))*AB42,(X41-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB43,"-(",Z42,"*",X46,"))","*",AB42,"(",X41-1,")","  ",X41-1))</f>
+        <f>IFERROR(MOD((AB43-(Z42*X46))*AB42,(X41-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB43,"-(",Z42,"*",X46,"))","*",AB42,"(",X41-1,")","  ",X41-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -2279,42 +2279,42 @@
         <v>12</v>
       </c>
       <c r="C48" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E46,C42),E41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E46,"^",C42,"  ",E41))</f>
+        <f>IFERROR(MOD(POWER(E46,C42),E41), CONCATENATE("https://es.planetcalc.com/8326/","  ",E46,"^",C42,"  ",E41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D48" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C46,E42),E41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C46,"^",E42,"  ",E41))</f>
+        <f>IFERROR(MOD(POWER(C46,E42),E41), CONCATENATE("https://es.planetcalc.com/8326/","  ",C46,"^",E42,"  ",E41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G48" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H48" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L47,H43),L42), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L47,"^",H43,"  ",L42))</f>
+        <f>IFERROR(MOD(POWER(L47,H43),L42), CONCATENATE("https://es.planetcalc.com/8326/","  ",L47,"^",H43,"  ",L42))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J48" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L47,J43),L43), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L47,"^",J43,"  ",L43))</f>
+        <f>IFERROR(MOD(POWER(L47,J43),L43), CONCATENATE("https://es.planetcalc.com/8326/","  ",L47,"^",J43,"  ",L43))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q48" s="7" t="str">
-        <f>IFERROR(MOD(U42*Q46,Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U42,"*",Q46,"  ",Q41))</f>
+        <f>IFERROR(MOD(U42*Q46,Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",U42,"*",Q46,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R48" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S48" s="7" t="str">
-        <f>IFERROR(MOD(U42*S46,Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U42,"*",S46,"  ",Q41))</f>
+        <f>IFERROR(MOD(U42*S46,Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",U42,"*",S46,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W48" t="s">
@@ -2364,28 +2364,28 @@
         <v>12</v>
       </c>
       <c r="Q51" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q47,S42),Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q47,"^",S42,"  ",Q41))</f>
+        <f>IFERROR(MOD(POWER(Q47,S42),Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q47,"^",S42,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S51" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S47,Q42),Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S47,"^",Q42,"  ",Q41))</f>
+        <f>IFERROR(MOD(POWER(S47,Q42),Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",S47,"^",Q42,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W51" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X51" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X43,X46)*POWER(X46,X47),X41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X43,"^",X46,")*",X46,"^",X47,")"," ",X41))</f>
+        <f>IFERROR(MOD(POWER(X43,X46)*POWER(X46,X47),X41), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X43,"^",X46,")*",X46,"^",X47,")"," ",X41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z51" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z43,Z46)*POWER(Z46,Z47),X41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z43,"^",Z46,")*",Z46,"^",Z47,")"," ",X41))</f>
+        <f>IFERROR(MOD(POWER(Z43,Z46)*POWER(Z46,Z47),X41), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z43,"^",Z46,")*",Z46,"^",Z47,")"," ",X41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -2394,28 +2394,28 @@
         <v>48</v>
       </c>
       <c r="Q52" s="7" t="str">
-        <f>IFERROR(MOD(Q53*Q48,Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q53,"*",Q48,"  ",Q41))</f>
+        <f>IFERROR(MOD(Q53*Q48,Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q53,"*",Q48,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R52" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S52" s="7" t="str">
-        <f>IFERROR(MOD(S53*S48,Q41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S53,"*",S48,"  ",Q41))</f>
+        <f>IFERROR(MOD(S53*S48,Q41), CONCATENATE("https://es.planetcalc.com/8326/","  ",S53,"*",S48,"  ",Q41))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W52" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X52" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z41,AB43),X41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z41,"^",AB43,"  ",X41))</f>
+        <f>IFERROR(MOD(POWER(Z41,AB43),X41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z41,"^",AB43,"  ",X41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y52" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z41,AB43),X41), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z41,"^",AB43,"  ",X41))</f>
+        <f>IFERROR(MOD(POWER(Z41,AB43),X41), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z41,"^",AB43,"  ",X41))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -2610,28 +2610,28 @@
         <v>41</v>
       </c>
       <c r="Q61" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S59,Q60),Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S59,"^",Q60,"  ",Q59))</f>
+        <f>IFERROR(MOD(POWER(S59,Q60),Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",S59,"^",Q60,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R61" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S61" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S59,S60),Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S59,"^",S60,"  ",Q59))</f>
+        <f>IFERROR(MOD(POWER(S59,S60),Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",S59,"^",S60,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W61" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X61" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z59,X60),X59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z59,"^",X60,"  ",X59))</f>
+        <f>IFERROR(MOD(POWER(Z59,X60),X59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z59,"^",X60,"  ",X59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y61" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z61" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z59,Z60),X59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z59,"^",Z60,"  ",X59))</f>
+        <f>IFERROR(MOD(POWER(Z59,Z60),X59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z59,"^",Z60,"  ",X59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA61" s="4" t="s">
@@ -2683,56 +2683,56 @@
         <v>10</v>
       </c>
       <c r="C64" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C59,C60),E59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C59,"^",C60,"  ",E59))</f>
+        <f>IFERROR(MOD(POWER(C59,C60),E59), CONCATENATE("https://es.planetcalc.com/8326/","  ",C59,"^",C60,"  ",E59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C59,E60),E59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C59,"^",E60,"  ",E59))</f>
+        <f>IFERROR(MOD(POWER(C59,E60),E59), CONCATENATE("https://es.planetcalc.com/8326/","  ",C59,"^",E60,"  ",E59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G64" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H64" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L63,H60),L60), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L63,"^",H60,"  ",L60))</f>
+        <f>IFERROR(MOD(POWER(L63,H60),L60), CONCATENATE("https://es.planetcalc.com/8326/","  ",L63,"^",H60,"  ",L60))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J64" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L63,J60),L61), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L63,"^",J60,"  ",L61))</f>
+        <f>IFERROR(MOD(POWER(L63,J60),L61), CONCATENATE("https://es.planetcalc.com/8326/","  ",L63,"^",J60,"  ",L61))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S61,U59),Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S61,"^",U59,"  ",Q59))</f>
+        <f>IFERROR(MOD(POWER(S61,U59),Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",S61,"^",U59,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R64" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S64" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q61,U59),Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q61,"^",U59,"  ",Q59))</f>
+        <f>IFERROR(MOD(POWER(Q61,U59),Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q61,"^",U59,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W64" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X64" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z59,AB59),X59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z59,"^",AB59,"  ",X59))</f>
+        <f>IFERROR(MOD(POWER(Z59,AB59),X59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z59,"^",AB59,"  ",X59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y64" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z64" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z59,AB59),X59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z59,"^",AB59,"  ",X59))</f>
+        <f>IFERROR(MOD(POWER(Z59,AB59),X59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z59,"^",AB59,"  ",X59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -2754,28 +2754,28 @@
         <v>46</v>
       </c>
       <c r="Q65" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S59,U59),Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S59,"^",U59,"  ",Q59))</f>
+        <f>IFERROR(MOD(POWER(S59,U59),Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",S59,"^",U59,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R65" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S65" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S59,U59),Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S59,"^",U59,"  ",Q59))</f>
+        <f>IFERROR(MOD(POWER(S59,U59),Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",S59,"^",U59,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W65" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X65" s="7" t="str">
-        <f>IFERROR(MOD((AB61-(X60*X64))*AB60,(X59-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB61,"-(",X60,"*",X64,"))","*",AB60,"(",X59-1,")","  ",X59-1))</f>
+        <f>IFERROR(MOD((AB61-(X60*X64))*AB60,(X59-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB61,"-(",X60,"*",X64,"))","*",AB60,"(",X59-1,")","  ",X59-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y65" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z65" s="7" t="str">
-        <f>IFERROR(MOD((AB61-(Z60*X64))*AB60,(X59-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB61,"-(",Z60,"*",X64,"))","*",AB60,"(",X59-1,")","  ",X59-1))</f>
+        <f>IFERROR(MOD((AB61-(Z60*X64))*AB60,(X59-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB61,"-(",Z60,"*",X64,"))","*",AB60,"(",X59-1,")","  ",X59-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -2784,42 +2784,42 @@
         <v>12</v>
       </c>
       <c r="C66" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E64,C60),E59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E64,"^",C60,"  ",E59))</f>
+        <f>IFERROR(MOD(POWER(E64,C60),E59), CONCATENATE("https://es.planetcalc.com/8326/","  ",E64,"^",C60,"  ",E59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C64,E60),E59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C64,"^",E60,"  ",E59))</f>
+        <f>IFERROR(MOD(POWER(C64,E60),E59), CONCATENATE("https://es.planetcalc.com/8326/","  ",C64,"^",E60,"  ",E59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G66" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H66" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L65,H61),L60), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L65,"^",H61,"  ",L60))</f>
+        <f>IFERROR(MOD(POWER(L65,H61),L60), CONCATENATE("https://es.planetcalc.com/8326/","  ",L65,"^",H61,"  ",L60))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J66" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L65,J61),L61), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L65,"^",J61,"  ",L61))</f>
+        <f>IFERROR(MOD(POWER(L65,J61),L61), CONCATENATE("https://es.planetcalc.com/8326/","  ",L65,"^",J61,"  ",L61))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q66" s="7" t="str">
-        <f>IFERROR(MOD(U60*Q64,Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U60,"*",Q64,"  ",Q59))</f>
+        <f>IFERROR(MOD(U60*Q64,Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",U60,"*",Q64,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R66" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S66" s="7" t="str">
-        <f>IFERROR(MOD(U60*S64,Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U60,"*",S64,"  ",Q59))</f>
+        <f>IFERROR(MOD(U60*S64,Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",U60,"*",S64,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W66" t="s">
@@ -2869,28 +2869,28 @@
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q65,S60),Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q65,"^",S60,"  ",Q59))</f>
+        <f>IFERROR(MOD(POWER(Q65,S60),Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q65,"^",S60,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S69" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S65,Q60),Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S65,"^",Q60,"  ",Q59))</f>
+        <f>IFERROR(MOD(POWER(S65,Q60),Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",S65,"^",Q60,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W69" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X69" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X61,X64)*POWER(X64,X65),X59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X61,"^",X64,")*",X64,"^",X65,")"," ",X59))</f>
+        <f>IFERROR(MOD(POWER(X61,X64)*POWER(X64,X65),X59), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X61,"^",X64,")*",X64,"^",X65,")"," ",X59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y69" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z69" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z61,Z64)*POWER(Z64,Z65),X59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z61,"^",Z64,")*",Z64,"^",Z65,")"," ",X59))</f>
+        <f>IFERROR(MOD(POWER(Z61,Z64)*POWER(Z64,Z65),X59), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z61,"^",Z64,")*",Z64,"^",Z65,")"," ",X59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -2899,28 +2899,28 @@
         <v>48</v>
       </c>
       <c r="Q70" s="7" t="str">
-        <f>IFERROR(MOD(Q71*Q66,Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q71,"*",Q66,"  ",Q59))</f>
+        <f>IFERROR(MOD(Q71*Q66,Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q71,"*",Q66,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R70" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S70" s="7" t="str">
-        <f>IFERROR(MOD(S71*S66,Q59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S71,"*",S66,"  ",Q59))</f>
+        <f>IFERROR(MOD(S71*S66,Q59), CONCATENATE("https://es.planetcalc.com/8326/","  ",S71,"*",S66,"  ",Q59))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W70" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X70" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z59,AB61),X59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z59,"^",AB61,"  ",X59))</f>
+        <f>IFERROR(MOD(POWER(Z59,AB61),X59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z59,"^",AB61,"  ",X59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y70" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z70" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z59,AB61),X59), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z59,"^",AB61,"  ",X59))</f>
+        <f>IFERROR(MOD(POWER(Z59,AB61),X59), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z59,"^",AB61,"  ",X59))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -3115,28 +3115,28 @@
         <v>41</v>
       </c>
       <c r="Q79" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S77,Q78),Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S77,"^",Q78,"  ",Q77))</f>
+        <f>IFERROR(MOD(POWER(S77,Q78),Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",S77,"^",Q78,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R79" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S79" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S77,S78),Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S77,"^",S78,"  ",Q77))</f>
+        <f>IFERROR(MOD(POWER(S77,S78),Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",S77,"^",S78,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W79" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X79" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z77,X78),X77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z77,"^",X78,"  ",X77))</f>
+        <f>IFERROR(MOD(POWER(Z77,X78),X77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z77,"^",X78,"  ",X77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y79" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z79" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z77,Z78),X77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z77,"^",Z78,"  ",X77))</f>
+        <f>IFERROR(MOD(POWER(Z77,Z78),X77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z77,"^",Z78,"  ",X77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA79" s="4" t="s">
@@ -3188,56 +3188,56 @@
         <v>10</v>
       </c>
       <c r="C82" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C77,C78),E77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C77,"^",C78,"  ",E77))</f>
+        <f>IFERROR(MOD(POWER(C77,C78),E77), CONCATENATE("https://es.planetcalc.com/8326/","  ",C77,"^",C78,"  ",E77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D82" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C77,E78),E77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C77,"^",E78,"  ",E77))</f>
+        <f>IFERROR(MOD(POWER(C77,E78),E77), CONCATENATE("https://es.planetcalc.com/8326/","  ",C77,"^",E78,"  ",E77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G82" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H82" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L81,H78),L78), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L81,"^",H78,"  ",L78))</f>
+        <f>IFERROR(MOD(POWER(L81,H78),L78), CONCATENATE("https://es.planetcalc.com/8326/","  ",L81,"^",H78,"  ",L78))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J82" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L81,J78),L79), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L81,"^",J78,"  ",L79))</f>
+        <f>IFERROR(MOD(POWER(L81,J78),L79), CONCATENATE("https://es.planetcalc.com/8326/","  ",L81,"^",J78,"  ",L79))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q82" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S79,U77),Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S79,"^",U77,"  ",Q77))</f>
+        <f>IFERROR(MOD(POWER(S79,U77),Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",S79,"^",U77,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R82" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S82" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q79,U77),Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q79,"^",U77,"  ",Q77))</f>
+        <f>IFERROR(MOD(POWER(Q79,U77),Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q79,"^",U77,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W82" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X82" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z77,AB77),X77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z77,"^",AB77,"  ",X77))</f>
+        <f>IFERROR(MOD(POWER(Z77,AB77),X77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z77,"^",AB77,"  ",X77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y82" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z82" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z77,AB77),X77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z77,"^",AB77,"  ",X77))</f>
+        <f>IFERROR(MOD(POWER(Z77,AB77),X77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z77,"^",AB77,"  ",X77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -3259,28 +3259,28 @@
         <v>46</v>
       </c>
       <c r="Q83" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S77,U77),Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S77,"^",U77,"  ",Q77))</f>
+        <f>IFERROR(MOD(POWER(S77,U77),Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",S77,"^",U77,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R83" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S83" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S77,U77),Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S77,"^",U77,"  ",Q77))</f>
+        <f>IFERROR(MOD(POWER(S77,U77),Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",S77,"^",U77,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W83" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X83" s="7" t="str">
-        <f>IFERROR(MOD((AB79-(X78*X82))*AB78,(X77-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB79,"-(",X78,"*",X82,"))","*",AB78,"(",X77-1,")","  ",X77-1))</f>
+        <f>IFERROR(MOD((AB79-(X78*X82))*AB78,(X77-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB79,"-(",X78,"*",X82,"))","*",AB78,"(",X77-1,")","  ",X77-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y83" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z83" s="7" t="str">
-        <f>IFERROR(MOD((AB79-(Z78*X82))*AB78,(X77-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB79,"-(",Z78,"*",X82,"))","*",AB78,"(",X77-1,")","  ",X77-1))</f>
+        <f>IFERROR(MOD((AB79-(Z78*X82))*AB78,(X77-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB79,"-(",Z78,"*",X82,"))","*",AB78,"(",X77-1,")","  ",X77-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -3289,42 +3289,42 @@
         <v>12</v>
       </c>
       <c r="C84" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E82,C78),E77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E82,"^",C78,"  ",E77))</f>
+        <f>IFERROR(MOD(POWER(E82,C78),E77), CONCATENATE("https://es.planetcalc.com/8326/","  ",E82,"^",C78,"  ",E77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D84" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C82,E78),E77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C82,"^",E78,"  ",E77))</f>
+        <f>IFERROR(MOD(POWER(C82,E78),E77), CONCATENATE("https://es.planetcalc.com/8326/","  ",C82,"^",E78,"  ",E77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G84" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H84" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L83,H79),L78), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L83,"^",H79,"  ",L78))</f>
+        <f>IFERROR(MOD(POWER(L83,H79),L78), CONCATENATE("https://es.planetcalc.com/8326/","  ",L83,"^",H79,"  ",L78))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J84" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L83,J79),L79), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L83,"^",J79,"  ",L79))</f>
+        <f>IFERROR(MOD(POWER(L83,J79),L79), CONCATENATE("https://es.planetcalc.com/8326/","  ",L83,"^",J79,"  ",L79))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q84" s="7" t="str">
-        <f>IFERROR(MOD(U78*Q82,Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U78,"*",Q82,"  ",Q77))</f>
+        <f>IFERROR(MOD(U78*Q82,Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",U78,"*",Q82,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R84" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S84" s="7" t="str">
-        <f>IFERROR(MOD(U78*S82,Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U78,"*",S82,"  ",Q77))</f>
+        <f>IFERROR(MOD(U78*S82,Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",U78,"*",S82,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W84" t="s">
@@ -3374,28 +3374,28 @@
         <v>12</v>
       </c>
       <c r="Q87" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q83,S78),Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q83,"^",S78,"  ",Q77))</f>
+        <f>IFERROR(MOD(POWER(Q83,S78),Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q83,"^",S78,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R87" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S87" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S83,Q78),Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S83,"^",Q78,"  ",Q77))</f>
+        <f>IFERROR(MOD(POWER(S83,Q78),Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",S83,"^",Q78,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W87" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X87" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X79,X82)*POWER(X82,X83),X77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X79,"^",X82,")*",X82,"^",X83,")"," ",X77))</f>
+        <f>IFERROR(MOD(POWER(X79,X82)*POWER(X82,X83),X77), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X79,"^",X82,")*",X82,"^",X83,")"," ",X77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y87" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z87" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z79,Z82)*POWER(Z82,Z83),X77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z79,"^",Z82,")*",Z82,"^",Z83,")"," ",X77))</f>
+        <f>IFERROR(MOD(POWER(Z79,Z82)*POWER(Z82,Z83),X77), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z79,"^",Z82,")*",Z82,"^",Z83,")"," ",X77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -3404,28 +3404,28 @@
         <v>48</v>
       </c>
       <c r="Q88" s="7" t="str">
-        <f>IFERROR(MOD(Q89*Q84,Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q89,"*",Q84,"  ",Q77))</f>
+        <f>IFERROR(MOD(Q89*Q84,Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q89,"*",Q84,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R88" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S88" s="7" t="str">
-        <f>IFERROR(MOD(S89*S84,Q77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S89,"*",S84,"  ",Q77))</f>
+        <f>IFERROR(MOD(S89*S84,Q77), CONCATENATE("https://es.planetcalc.com/8326/","  ",S89,"*",S84,"  ",Q77))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W88" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X88" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z77,AB79),X77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z77,"^",AB79,"  ",X77))</f>
+        <f>IFERROR(MOD(POWER(Z77,AB79),X77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z77,"^",AB79,"  ",X77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y88" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z88" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z77,AB79),X77), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z77,"^",AB79,"  ",X77))</f>
+        <f>IFERROR(MOD(POWER(Z77,AB79),X77), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z77,"^",AB79,"  ",X77))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -3620,28 +3620,28 @@
         <v>41</v>
       </c>
       <c r="Q97" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S95,Q96),Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S95,"^",Q96,"  ",Q95))</f>
+        <f>IFERROR(MOD(POWER(S95,Q96),Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",S95,"^",Q96,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R97" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S97" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S95,S96),Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S95,"^",S96,"  ",Q95))</f>
+        <f>IFERROR(MOD(POWER(S95,S96),Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",S95,"^",S96,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W97" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X97" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z95,X96),X95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z95,"^",X96,"  ",X95))</f>
+        <f>IFERROR(MOD(POWER(Z95,X96),X95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z95,"^",X96,"  ",X95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y97" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z97" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z95,Z96),X95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z95,"^",Z96,"  ",X95))</f>
+        <f>IFERROR(MOD(POWER(Z95,Z96),X95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z95,"^",Z96,"  ",X95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA97" s="4" t="s">
@@ -3693,56 +3693,56 @@
         <v>10</v>
       </c>
       <c r="C100" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C95,C96),E95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C95,"^",C96,"  ",E95))</f>
+        <f>IFERROR(MOD(POWER(C95,C96),E95), CONCATENATE("https://es.planetcalc.com/8326/","  ",C95,"^",C96,"  ",E95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C95,E96),E95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C95,"^",E96,"  ",E95))</f>
+        <f>IFERROR(MOD(POWER(C95,E96),E95), CONCATENATE("https://es.planetcalc.com/8326/","  ",C95,"^",E96,"  ",E95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G100" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H100" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L99,H96),L96), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L99,"^",H96,"  ",L96))</f>
+        <f>IFERROR(MOD(POWER(L99,H96),L96), CONCATENATE("https://es.planetcalc.com/8326/","  ",L99,"^",H96,"  ",L96))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J100" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L99,J96),L97), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L99,"^",J96,"  ",L97))</f>
+        <f>IFERROR(MOD(POWER(L99,J96),L97), CONCATENATE("https://es.planetcalc.com/8326/","  ",L99,"^",J96,"  ",L97))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P100" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q100" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S97,U95),Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S97,"^",U95,"  ",Q95))</f>
+        <f>IFERROR(MOD(POWER(S97,U95),Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",S97,"^",U95,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R100" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S100" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q97,U95),Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q97,"^",U95,"  ",Q95))</f>
+        <f>IFERROR(MOD(POWER(Q97,U95),Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q97,"^",U95,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W100" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X100" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z95,AB95),X95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z95,"^",AB95,"  ",X95))</f>
+        <f>IFERROR(MOD(POWER(Z95,AB95),X95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z95,"^",AB95,"  ",X95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y100" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z100" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z95,AB95),X95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z95,"^",AB95,"  ",X95))</f>
+        <f>IFERROR(MOD(POWER(Z95,AB95),X95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z95,"^",AB95,"  ",X95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -3764,28 +3764,28 @@
         <v>46</v>
       </c>
       <c r="Q101" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S95,U95),Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S95,"^",U95,"  ",Q95))</f>
+        <f>IFERROR(MOD(POWER(S95,U95),Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",S95,"^",U95,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R101" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S101" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S95,U95),Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S95,"^",U95,"  ",Q95))</f>
+        <f>IFERROR(MOD(POWER(S95,U95),Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",S95,"^",U95,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W101" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X101" s="7" t="str">
-        <f>IFERROR(MOD((AB97-(X96*X100))*AB96,(X95-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB97,"-(",X96,"*",X100,"))","*",AB96,"(",X95-1,")","  ",X95-1))</f>
+        <f>IFERROR(MOD((AB97-(X96*X100))*AB96,(X95-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB97,"-(",X96,"*",X100,"))","*",AB96,"(",X95-1,")","  ",X95-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y101" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z101" s="7" t="str">
-        <f>IFERROR(MOD((AB97-(Z96*X100))*AB96,(X95-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB97,"-(",Z96,"*",X100,"))","*",AB96,"(",X95-1,")","  ",X95-1))</f>
+        <f>IFERROR(MOD((AB97-(Z96*X100))*AB96,(X95-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB97,"-(",Z96,"*",X100,"))","*",AB96,"(",X95-1,")","  ",X95-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -3794,42 +3794,42 @@
         <v>12</v>
       </c>
       <c r="C102" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E100,C96),E95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E100,"^",C96,"  ",E95))</f>
+        <f>IFERROR(MOD(POWER(E100,C96),E95), CONCATENATE("https://es.planetcalc.com/8326/","  ",E100,"^",C96,"  ",E95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D102" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C100,E96),E95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C100,"^",E96,"  ",E95))</f>
+        <f>IFERROR(MOD(POWER(C100,E96),E95), CONCATENATE("https://es.planetcalc.com/8326/","  ",C100,"^",E96,"  ",E95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G102" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H102" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L101,H97),L96), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L101,"^",H97,"  ",L96))</f>
+        <f>IFERROR(MOD(POWER(L101,H97),L96), CONCATENATE("https://es.planetcalc.com/8326/","  ",L101,"^",H97,"  ",L96))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J102" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L101,J97),L97), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L101,"^",J97,"  ",L97))</f>
+        <f>IFERROR(MOD(POWER(L101,J97),L97), CONCATENATE("https://es.planetcalc.com/8326/","  ",L101,"^",J97,"  ",L97))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P102" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q102" s="7" t="str">
-        <f>IFERROR(MOD(U96*Q100,Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U96,"*",Q100,"  ",Q95))</f>
+        <f>IFERROR(MOD(U96*Q100,Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",U96,"*",Q100,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R102" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S102" s="7" t="str">
-        <f>IFERROR(MOD(U96*S100,Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U96,"*",S100,"  ",Q95))</f>
+        <f>IFERROR(MOD(U96*S100,Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",U96,"*",S100,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W102" t="s">
@@ -3879,28 +3879,28 @@
         <v>12</v>
       </c>
       <c r="Q105" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q101,S96),Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q101,"^",S96,"  ",Q95))</f>
+        <f>IFERROR(MOD(POWER(Q101,S96),Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q101,"^",S96,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R105" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S105" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S101,Q96),Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S101,"^",Q96,"  ",Q95))</f>
+        <f>IFERROR(MOD(POWER(S101,Q96),Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",S101,"^",Q96,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W105" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X105" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X97,X100)*POWER(X100,X101),X95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X97,"^",X100,")*",X100,"^",X101,")"," ",X95))</f>
+        <f>IFERROR(MOD(POWER(X97,X100)*POWER(X100,X101),X95), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X97,"^",X100,")*",X100,"^",X101,")"," ",X95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y105" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z105" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z97,Z100)*POWER(Z100,Z101),X95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z97,"^",Z100,")*",Z100,"^",Z101,")"," ",X95))</f>
+        <f>IFERROR(MOD(POWER(Z97,Z100)*POWER(Z100,Z101),X95), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z97,"^",Z100,")*",Z100,"^",Z101,")"," ",X95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -3909,28 +3909,28 @@
         <v>48</v>
       </c>
       <c r="Q106" s="7" t="str">
-        <f>IFERROR(MOD(Q107*Q102,Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q107,"*",Q102,"  ",Q95))</f>
+        <f>IFERROR(MOD(Q107*Q102,Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q107,"*",Q102,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R106" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S106" s="7" t="str">
-        <f>IFERROR(MOD(S107*S102,Q95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S107,"*",S102,"  ",Q95))</f>
+        <f>IFERROR(MOD(S107*S102,Q95), CONCATENATE("https://es.planetcalc.com/8326/","  ",S107,"*",S102,"  ",Q95))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W106" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X106" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z95,AB97),X95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z95,"^",AB97,"  ",X95))</f>
+        <f>IFERROR(MOD(POWER(Z95,AB97),X95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z95,"^",AB97,"  ",X95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y106" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z106" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z95,AB97),X95), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z95,"^",AB97,"  ",X95))</f>
+        <f>IFERROR(MOD(POWER(Z95,AB97),X95), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z95,"^",AB97,"  ",X95))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -4125,28 +4125,28 @@
         <v>41</v>
       </c>
       <c r="Q115" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S113,Q114),Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S113,"^",Q114,"  ",Q113))</f>
+        <f>IFERROR(MOD(POWER(S113,Q114),Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",S113,"^",Q114,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R115" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S115" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S113,S114),Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S113,"^",S114,"  ",Q113))</f>
+        <f>IFERROR(MOD(POWER(S113,S114),Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",S113,"^",S114,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W115" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X115" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z113,X114),X113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z113,"^",X114,"  ",X113))</f>
+        <f>IFERROR(MOD(POWER(Z113,X114),X113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z113,"^",X114,"  ",X113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y115" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z115" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z113,Z114),X113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z113,"^",Z114,"  ",X113))</f>
+        <f>IFERROR(MOD(POWER(Z113,Z114),X113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z113,"^",Z114,"  ",X113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA115" s="4" t="s">
@@ -4198,56 +4198,56 @@
         <v>10</v>
       </c>
       <c r="C118" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C113,C114),E113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C113,"^",C114,"  ",E113))</f>
+        <f>IFERROR(MOD(POWER(C113,C114),E113), CONCATENATE("https://es.planetcalc.com/8326/","  ",C113,"^",C114,"  ",E113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D118" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C113,E114),E113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C113,"^",E114,"  ",E113))</f>
+        <f>IFERROR(MOD(POWER(C113,E114),E113), CONCATENATE("https://es.planetcalc.com/8326/","  ",C113,"^",E114,"  ",E113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G118" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H118" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L117,H114),L114), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L117,"^",H114,"  ",L114))</f>
+        <f>IFERROR(MOD(POWER(L117,H114),L114), CONCATENATE("https://es.planetcalc.com/8326/","  ",L117,"^",H114,"  ",L114))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J118" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L117,J114),L115), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L117,"^",J114,"  ",L115))</f>
+        <f>IFERROR(MOD(POWER(L117,J114),L115), CONCATENATE("https://es.planetcalc.com/8326/","  ",L117,"^",J114,"  ",L115))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P118" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q118" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S115,U113),Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S115,"^",U113,"  ",Q113))</f>
+        <f>IFERROR(MOD(POWER(S115,U113),Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",S115,"^",U113,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R118" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S118" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q115,U113),Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q115,"^",U113,"  ",Q113))</f>
+        <f>IFERROR(MOD(POWER(Q115,U113),Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q115,"^",U113,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W118" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X118" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z113,AB113),X113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z113,"^",AB113,"  ",X113))</f>
+        <f>IFERROR(MOD(POWER(Z113,AB113),X113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z113,"^",AB113,"  ",X113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y118" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z118" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z113,AB113),X113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z113,"^",AB113,"  ",X113))</f>
+        <f>IFERROR(MOD(POWER(Z113,AB113),X113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z113,"^",AB113,"  ",X113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -4269,28 +4269,28 @@
         <v>46</v>
       </c>
       <c r="Q119" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S113,U113),Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S113,"^",U113,"  ",Q113))</f>
+        <f>IFERROR(MOD(POWER(S113,U113),Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",S113,"^",U113,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R119" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S119" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S113,U113),Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S113,"^",U113,"  ",Q113))</f>
+        <f>IFERROR(MOD(POWER(S113,U113),Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",S113,"^",U113,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W119" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X119" s="7" t="str">
-        <f>IFERROR(MOD((AB115-(X114*X118))*AB114,(X113-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB115,"-(",X114,"*",X118,"))","*",AB114,"(",X113-1,")","  ",X113-1))</f>
+        <f>IFERROR(MOD((AB115-(X114*X118))*AB114,(X113-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB115,"-(",X114,"*",X118,"))","*",AB114,"(",X113-1,")","  ",X113-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y119" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z119" s="7" t="str">
-        <f>IFERROR(MOD((AB115-(Z114*X118))*AB114,(X113-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB115,"-(",Z114,"*",X118,"))","*",AB114,"(",X113-1,")","  ",X113-1))</f>
+        <f>IFERROR(MOD((AB115-(Z114*X118))*AB114,(X113-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB115,"-(",Z114,"*",X118,"))","*",AB114,"(",X113-1,")","  ",X113-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -4299,42 +4299,42 @@
         <v>12</v>
       </c>
       <c r="C120" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E118,C114),E113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E118,"^",C114,"  ",E113))</f>
+        <f>IFERROR(MOD(POWER(E118,C114),E113), CONCATENATE("https://es.planetcalc.com/8326/","  ",E118,"^",C114,"  ",E113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D120" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C118,E114),E113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C118,"^",E114,"  ",E113))</f>
+        <f>IFERROR(MOD(POWER(C118,E114),E113), CONCATENATE("https://es.planetcalc.com/8326/","  ",C118,"^",E114,"  ",E113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G120" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H120" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L119,H115),L114), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L119,"^",H115,"  ",L114))</f>
+        <f>IFERROR(MOD(POWER(L119,H115),L114), CONCATENATE("https://es.planetcalc.com/8326/","  ",L119,"^",H115,"  ",L114))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J120" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L119,J115),L115), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L119,"^",J115,"  ",L115))</f>
+        <f>IFERROR(MOD(POWER(L119,J115),L115), CONCATENATE("https://es.planetcalc.com/8326/","  ",L119,"^",J115,"  ",L115))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P120" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q120" s="7" t="str">
-        <f>IFERROR(MOD(U114*Q118,Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U114,"*",Q118,"  ",Q113))</f>
+        <f>IFERROR(MOD(U114*Q118,Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",U114,"*",Q118,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R120" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S120" s="7" t="str">
-        <f>IFERROR(MOD(U114*S118,Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U114,"*",S118,"  ",Q113))</f>
+        <f>IFERROR(MOD(U114*S118,Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",U114,"*",S118,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W120" t="s">
@@ -4384,28 +4384,28 @@
         <v>12</v>
       </c>
       <c r="Q123" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q119,S114),Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q119,"^",S114,"  ",Q113))</f>
+        <f>IFERROR(MOD(POWER(Q119,S114),Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q119,"^",S114,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R123" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S123" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S119,Q114),Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S119,"^",Q114,"  ",Q113))</f>
+        <f>IFERROR(MOD(POWER(S119,Q114),Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",S119,"^",Q114,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W123" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X123" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X115,X118)*POWER(X118,X119),X113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X115,"^",X118,")*",X118,"^",X119,")"," ",X113))</f>
+        <f>IFERROR(MOD(POWER(X115,X118)*POWER(X118,X119),X113), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X115,"^",X118,")*",X118,"^",X119,")"," ",X113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y123" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z123" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z115,Z118)*POWER(Z118,Z119),X113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z115,"^",Z118,")*",Z118,"^",Z119,")"," ",X113))</f>
+        <f>IFERROR(MOD(POWER(Z115,Z118)*POWER(Z118,Z119),X113), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z115,"^",Z118,")*",Z118,"^",Z119,")"," ",X113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -4414,28 +4414,28 @@
         <v>48</v>
       </c>
       <c r="Q124" s="7" t="str">
-        <f>IFERROR(MOD(Q125*Q120,Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q125,"*",Q120,"  ",Q113))</f>
+        <f>IFERROR(MOD(Q125*Q120,Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q125,"*",Q120,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R124" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S124" s="7" t="str">
-        <f>IFERROR(MOD(S125*S120,Q113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S125,"*",S120,"  ",Q113))</f>
+        <f>IFERROR(MOD(S125*S120,Q113), CONCATENATE("https://es.planetcalc.com/8326/","  ",S125,"*",S120,"  ",Q113))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W124" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X124" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z113,AB115),X113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z113,"^",AB115,"  ",X113))</f>
+        <f>IFERROR(MOD(POWER(Z113,AB115),X113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z113,"^",AB115,"  ",X113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y124" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z124" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z113,AB115),X113), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z113,"^",AB115,"  ",X113))</f>
+        <f>IFERROR(MOD(POWER(Z113,AB115),X113), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z113,"^",AB115,"  ",X113))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -4630,28 +4630,28 @@
         <v>41</v>
       </c>
       <c r="Q133" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S131,Q132),Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S131,"^",Q132,"  ",Q131))</f>
+        <f>IFERROR(MOD(POWER(S131,Q132),Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",S131,"^",Q132,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R133" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S133" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S131,S132),Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S131,"^",S132,"  ",Q131))</f>
+        <f>IFERROR(MOD(POWER(S131,S132),Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",S131,"^",S132,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W133" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X133" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z131,X132),X131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z131,"^",X132,"  ",X131))</f>
+        <f>IFERROR(MOD(POWER(Z131,X132),X131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z131,"^",X132,"  ",X131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y133" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z133" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z131,Z132),X131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z131,"^",Z132,"  ",X131))</f>
+        <f>IFERROR(MOD(POWER(Z131,Z132),X131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z131,"^",Z132,"  ",X131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA133" s="4" t="s">
@@ -4703,56 +4703,56 @@
         <v>10</v>
       </c>
       <c r="C136" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C131,C132),E131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C131,"^",C132,"  ",E131))</f>
+        <f>IFERROR(MOD(POWER(C131,C132),E131), CONCATENATE("https://es.planetcalc.com/8326/","  ",C131,"^",C132,"  ",E131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D136" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C131,E132),E131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C131,"^",E132,"  ",E131))</f>
+        <f>IFERROR(MOD(POWER(C131,E132),E131), CONCATENATE("https://es.planetcalc.com/8326/","  ",C131,"^",E132,"  ",E131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G136" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H136" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L135,H132),L132), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L135,"^",H132,"  ",L132))</f>
+        <f>IFERROR(MOD(POWER(L135,H132),L132), CONCATENATE("https://es.planetcalc.com/8326/","  ",L135,"^",H132,"  ",L132))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J136" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L135,J132),L133), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L135,"^",J132,"  ",L133))</f>
+        <f>IFERROR(MOD(POWER(L135,J132),L133), CONCATENATE("https://es.planetcalc.com/8326/","  ",L135,"^",J132,"  ",L133))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P136" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q136" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S133,U131),Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S133,"^",U131,"  ",Q131))</f>
+        <f>IFERROR(MOD(POWER(S133,U131),Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",S133,"^",U131,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R136" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S136" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q133,U131),Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q133,"^",U131,"  ",Q131))</f>
+        <f>IFERROR(MOD(POWER(Q133,U131),Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q133,"^",U131,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W136" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X136" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z131,AB131),X131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z131,"^",AB131,"  ",X131))</f>
+        <f>IFERROR(MOD(POWER(Z131,AB131),X131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z131,"^",AB131,"  ",X131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y136" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z136" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z131,AB131),X131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z131,"^",AB131,"  ",X131))</f>
+        <f>IFERROR(MOD(POWER(Z131,AB131),X131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z131,"^",AB131,"  ",X131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -4774,28 +4774,28 @@
         <v>46</v>
       </c>
       <c r="Q137" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S131,U131),Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S131,"^",U131,"  ",Q131))</f>
+        <f>IFERROR(MOD(POWER(S131,U131),Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",S131,"^",U131,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R137" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S137" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S131,U131),Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S131,"^",U131,"  ",Q131))</f>
+        <f>IFERROR(MOD(POWER(S131,U131),Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",S131,"^",U131,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W137" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X137" s="7" t="str">
-        <f>IFERROR(MOD((AB133-(X132*X136))*AB132,(X131-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB133,"-(",X132,"*",X136,"))","*",AB132,"(",X131-1,")","  ",X131-1))</f>
+        <f>IFERROR(MOD((AB133-(X132*X136))*AB132,(X131-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB133,"-(",X132,"*",X136,"))","*",AB132,"(",X131-1,")","  ",X131-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y137" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z137" s="7" t="str">
-        <f>IFERROR(MOD((AB133-(Z132*X136))*AB132,(X131-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB133,"-(",Z132,"*",X136,"))","*",AB132,"(",X131-1,")","  ",X131-1))</f>
+        <f>IFERROR(MOD((AB133-(Z132*X136))*AB132,(X131-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB133,"-(",Z132,"*",X136,"))","*",AB132,"(",X131-1,")","  ",X131-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -4804,42 +4804,42 @@
         <v>12</v>
       </c>
       <c r="C138" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E136,C132),E131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E136,"^",C132,"  ",E131))</f>
+        <f>IFERROR(MOD(POWER(E136,C132),E131), CONCATENATE("https://es.planetcalc.com/8326/","  ",E136,"^",C132,"  ",E131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D138" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E138" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C136,E132),E131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C136,"^",E132,"  ",E131))</f>
+        <f>IFERROR(MOD(POWER(C136,E132),E131), CONCATENATE("https://es.planetcalc.com/8326/","  ",C136,"^",E132,"  ",E131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G138" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H138" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L137,H133),L132), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L137,"^",H133,"  ",L132))</f>
+        <f>IFERROR(MOD(POWER(L137,H133),L132), CONCATENATE("https://es.planetcalc.com/8326/","  ",L137,"^",H133,"  ",L132))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J138" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L137,J133),L133), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L137,"^",J133,"  ",L133))</f>
+        <f>IFERROR(MOD(POWER(L137,J133),L133), CONCATENATE("https://es.planetcalc.com/8326/","  ",L137,"^",J133,"  ",L133))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P138" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q138" s="7" t="str">
-        <f>IFERROR(MOD(U132*Q136,Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U132,"*",Q136,"  ",Q131))</f>
+        <f>IFERROR(MOD(U132*Q136,Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",U132,"*",Q136,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R138" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S138" s="7" t="str">
-        <f>IFERROR(MOD(U132*S136,Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U132,"*",S136,"  ",Q131))</f>
+        <f>IFERROR(MOD(U132*S136,Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",U132,"*",S136,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W138" t="s">
@@ -4889,28 +4889,28 @@
         <v>12</v>
       </c>
       <c r="Q141" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q137,S132),Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q137,"^",S132,"  ",Q131))</f>
+        <f>IFERROR(MOD(POWER(Q137,S132),Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q137,"^",S132,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R141" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S141" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S137,Q132),Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S137,"^",Q132,"  ",Q131))</f>
+        <f>IFERROR(MOD(POWER(S137,Q132),Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",S137,"^",Q132,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W141" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X141" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X133,X136)*POWER(X136,X137),X131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X133,"^",X136,")*",X136,"^",X137,")"," ",X131))</f>
+        <f>IFERROR(MOD(POWER(X133,X136)*POWER(X136,X137),X131), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X133,"^",X136,")*",X136,"^",X137,")"," ",X131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y141" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z141" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z133,Z136)*POWER(Z136,Z137),X131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z133,"^",Z136,")*",Z136,"^",Z137,")"," ",X131))</f>
+        <f>IFERROR(MOD(POWER(Z133,Z136)*POWER(Z136,Z137),X131), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z133,"^",Z136,")*",Z136,"^",Z137,")"," ",X131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -4919,28 +4919,28 @@
         <v>48</v>
       </c>
       <c r="Q142" s="7" t="str">
-        <f>IFERROR(MOD(Q143*Q138,Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q143,"*",Q138,"  ",Q131))</f>
+        <f>IFERROR(MOD(Q143*Q138,Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q143,"*",Q138,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R142" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S142" s="7" t="str">
-        <f>IFERROR(MOD(S143*S138,Q131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S143,"*",S138,"  ",Q131))</f>
+        <f>IFERROR(MOD(S143*S138,Q131), CONCATENATE("https://es.planetcalc.com/8326/","  ",S143,"*",S138,"  ",Q131))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W142" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X142" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z131,AB133),X131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z131,"^",AB133,"  ",X131))</f>
+        <f>IFERROR(MOD(POWER(Z131,AB133),X131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z131,"^",AB133,"  ",X131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y142" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z142" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z131,AB133),X131), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z131,"^",AB133,"  ",X131))</f>
+        <f>IFERROR(MOD(POWER(Z131,AB133),X131), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z131,"^",AB133,"  ",X131))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -5135,28 +5135,28 @@
         <v>41</v>
       </c>
       <c r="Q151" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S149,Q150),Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S149,"^",Q150,"  ",Q149))</f>
+        <f>IFERROR(MOD(POWER(S149,Q150),Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",S149,"^",Q150,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R151" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S151" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S149,S150),Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S149,"^",S150,"  ",Q149))</f>
+        <f>IFERROR(MOD(POWER(S149,S150),Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",S149,"^",S150,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W151" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X151" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z149,X150),X149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z149,"^",X150,"  ",X149))</f>
+        <f>IFERROR(MOD(POWER(Z149,X150),X149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z149,"^",X150,"  ",X149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y151" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z151" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z149,Z150),X149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z149,"^",Z150,"  ",X149))</f>
+        <f>IFERROR(MOD(POWER(Z149,Z150),X149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z149,"^",Z150,"  ",X149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA151" s="4" t="s">
@@ -5208,56 +5208,56 @@
         <v>10</v>
       </c>
       <c r="C154" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C149,C150),E149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C149,"^",C150,"  ",E149))</f>
+        <f>IFERROR(MOD(POWER(C149,C150),E149), CONCATENATE("https://es.planetcalc.com/8326/","  ",C149,"^",C150,"  ",E149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D154" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C149,E150),E149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C149,"^",E150,"  ",E149))</f>
+        <f>IFERROR(MOD(POWER(C149,E150),E149), CONCATENATE("https://es.planetcalc.com/8326/","  ",C149,"^",E150,"  ",E149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G154" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H154" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L153,H150),L150), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L153,"^",H150,"  ",L150))</f>
+        <f>IFERROR(MOD(POWER(L153,H150),L150), CONCATENATE("https://es.planetcalc.com/8326/","  ",L153,"^",H150,"  ",L150))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J154" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L153,J150),L151), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L153,"^",J150,"  ",L151))</f>
+        <f>IFERROR(MOD(POWER(L153,J150),L151), CONCATENATE("https://es.planetcalc.com/8326/","  ",L153,"^",J150,"  ",L151))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P154" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q154" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S151,U149),Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S151,"^",U149,"  ",Q149))</f>
+        <f>IFERROR(MOD(POWER(S151,U149),Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",S151,"^",U149,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R154" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S154" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q151,U149),Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q151,"^",U149,"  ",Q149))</f>
+        <f>IFERROR(MOD(POWER(Q151,U149),Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q151,"^",U149,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W154" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X154" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z149,AB149),X149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z149,"^",AB149,"  ",X149))</f>
+        <f>IFERROR(MOD(POWER(Z149,AB149),X149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z149,"^",AB149,"  ",X149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y154" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z154" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z149,AB149),X149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z149,"^",AB149,"  ",X149))</f>
+        <f>IFERROR(MOD(POWER(Z149,AB149),X149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z149,"^",AB149,"  ",X149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -5279,28 +5279,28 @@
         <v>46</v>
       </c>
       <c r="Q155" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S149,U149),Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S149,"^",U149,"  ",Q149))</f>
+        <f>IFERROR(MOD(POWER(S149,U149),Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",S149,"^",U149,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R155" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S155" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S149,U149),Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S149,"^",U149,"  ",Q149))</f>
+        <f>IFERROR(MOD(POWER(S149,U149),Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",S149,"^",U149,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W155" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X155" s="7" t="str">
-        <f>IFERROR(MOD((AB151-(X150*X154))*AB150,(X149-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB151,"-(",X150,"*",X154,"))","*",AB150,"(",X149-1,")","  ",X149-1))</f>
+        <f>IFERROR(MOD((AB151-(X150*X154))*AB150,(X149-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB151,"-(",X150,"*",X154,"))","*",AB150,"(",X149-1,")","  ",X149-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y155" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z155" s="7" t="str">
-        <f>IFERROR(MOD((AB151-(Z150*X154))*AB150,(X149-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB151,"-(",Z150,"*",X154,"))","*",AB150,"(",X149-1,")","  ",X149-1))</f>
+        <f>IFERROR(MOD((AB151-(Z150*X154))*AB150,(X149-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB151,"-(",Z150,"*",X154,"))","*",AB150,"(",X149-1,")","  ",X149-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -5309,42 +5309,42 @@
         <v>12</v>
       </c>
       <c r="C156" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E154,C150),E149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E154,"^",C150,"  ",E149))</f>
+        <f>IFERROR(MOD(POWER(E154,C150),E149), CONCATENATE("https://es.planetcalc.com/8326/","  ",E154,"^",C150,"  ",E149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D156" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E156" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C154,E150),E149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C154,"^",E150,"  ",E149))</f>
+        <f>IFERROR(MOD(POWER(C154,E150),E149), CONCATENATE("https://es.planetcalc.com/8326/","  ",C154,"^",E150,"  ",E149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G156" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H156" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L155,H151),L150), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L155,"^",H151,"  ",L150))</f>
+        <f>IFERROR(MOD(POWER(L155,H151),L150), CONCATENATE("https://es.planetcalc.com/8326/","  ",L155,"^",H151,"  ",L150))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I156" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J156" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L155,J151),L151), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L155,"^",J151,"  ",L151))</f>
+        <f>IFERROR(MOD(POWER(L155,J151),L151), CONCATENATE("https://es.planetcalc.com/8326/","  ",L155,"^",J151,"  ",L151))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P156" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q156" s="7" t="str">
-        <f>IFERROR(MOD(U150*Q154,Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U150,"*",Q154,"  ",Q149))</f>
+        <f>IFERROR(MOD(U150*Q154,Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",U150,"*",Q154,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R156" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S156" s="7" t="str">
-        <f>IFERROR(MOD(U150*S154,Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U150,"*",S154,"  ",Q149))</f>
+        <f>IFERROR(MOD(U150*S154,Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",U150,"*",S154,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W156" t="s">
@@ -5394,28 +5394,28 @@
         <v>12</v>
       </c>
       <c r="Q159" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q155,S150),Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q155,"^",S150,"  ",Q149))</f>
+        <f>IFERROR(MOD(POWER(Q155,S150),Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q155,"^",S150,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R159" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S159" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S155,Q150),Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S155,"^",Q150,"  ",Q149))</f>
+        <f>IFERROR(MOD(POWER(S155,Q150),Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",S155,"^",Q150,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W159" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X159" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X151,X154)*POWER(X154,X155),X149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X151,"^",X154,")*",X154,"^",X155,")"," ",X149))</f>
+        <f>IFERROR(MOD(POWER(X151,X154)*POWER(X154,X155),X149), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X151,"^",X154,")*",X154,"^",X155,")"," ",X149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y159" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z159" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z151,Z154)*POWER(Z154,Z155),X149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z151,"^",Z154,")*",Z154,"^",Z155,")"," ",X149))</f>
+        <f>IFERROR(MOD(POWER(Z151,Z154)*POWER(Z154,Z155),X149), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z151,"^",Z154,")*",Z154,"^",Z155,")"," ",X149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -5424,28 +5424,28 @@
         <v>48</v>
       </c>
       <c r="Q160" s="7" t="str">
-        <f>IFERROR(MOD(Q161*Q156,Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q161,"*",Q156,"  ",Q149))</f>
+        <f>IFERROR(MOD(Q161*Q156,Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q161,"*",Q156,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R160" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S160" s="7" t="str">
-        <f>IFERROR(MOD(S161*S156,Q149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S161,"*",S156,"  ",Q149))</f>
+        <f>IFERROR(MOD(S161*S156,Q149), CONCATENATE("https://es.planetcalc.com/8326/","  ",S161,"*",S156,"  ",Q149))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W160" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X160" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z149,AB151),X149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z149,"^",AB151,"  ",X149))</f>
+        <f>IFERROR(MOD(POWER(Z149,AB151),X149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z149,"^",AB151,"  ",X149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y160" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z160" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z149,AB151),X149), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z149,"^",AB151,"  ",X149))</f>
+        <f>IFERROR(MOD(POWER(Z149,AB151),X149), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z149,"^",AB151,"  ",X149))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -5640,28 +5640,28 @@
         <v>41</v>
       </c>
       <c r="Q169" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S167,Q168),Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S167,"^",Q168,"  ",Q167))</f>
+        <f>IFERROR(MOD(POWER(S167,Q168),Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",S167,"^",Q168,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R169" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S169" s="11" t="str">
-        <f>IFERROR(MOD(POWER(S167,S168),Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S167,"^",S168,"  ",Q167))</f>
+        <f>IFERROR(MOD(POWER(S167,S168),Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",S167,"^",S168,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W169" s="4" t="s">
         <v>41</v>
       </c>
       <c r="X169" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z167,X168),X167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z167,"^",X168,"  ",X167))</f>
+        <f>IFERROR(MOD(POWER(Z167,X168),X167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z167,"^",X168,"  ",X167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y169" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Z169" s="11" t="str">
-        <f>IFERROR(MOD(POWER(Z167,Z168),X167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z167,"^",Z168,"  ",X167))</f>
+        <f>IFERROR(MOD(POWER(Z167,Z168),X167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z167,"^",Z168,"  ",X167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="AA169" s="4" t="s">
@@ -5713,56 +5713,56 @@
         <v>10</v>
       </c>
       <c r="C172" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C167,C168),E167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C167,"^",C168,"  ",E167))</f>
+        <f>IFERROR(MOD(POWER(C167,C168),E167), CONCATENATE("https://es.planetcalc.com/8326/","  ",C167,"^",C168,"  ",E167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="D172" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C167,E168),E167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C167,"^",E168,"  ",E167))</f>
+        <f>IFERROR(MOD(POWER(C167,E168),E167), CONCATENATE("https://es.planetcalc.com/8326/","  ",C167,"^",E168,"  ",E167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="G172" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H172" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L171,H168),L168), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L171,"^",H168,"  ",L168))</f>
+        <f>IFERROR(MOD(POWER(L171,H168),L168), CONCATENATE("https://es.planetcalc.com/8326/","  ",L171,"^",H168,"  ",L168))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J172" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L171,J168),L169), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L171,"^",J168,"  ",L169))</f>
+        <f>IFERROR(MOD(POWER(L171,J168),L169), CONCATENATE("https://es.planetcalc.com/8326/","  ",L171,"^",J168,"  ",L169))</f>
         <v>https://es.planetcalc.com/8326/  ^  0</v>
       </c>
       <c r="P172" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q172" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S169,U167),Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S169,"^",U167,"  ",Q167))</f>
+        <f>IFERROR(MOD(POWER(S169,U167),Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",S169,"^",U167,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R172" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S172" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q169,U167),Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q169,"^",U167,"  ",Q167))</f>
+        <f>IFERROR(MOD(POWER(Q169,U167),Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q169,"^",U167,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W172" s="6" t="s">
         <v>53</v>
       </c>
       <c r="X172" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z167,AB167),X167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z167,"^",AB167,"  ",X167))</f>
+        <f>IFERROR(MOD(POWER(Z167,AB167),X167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z167,"^",AB167,"  ",X167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y172" s="6" t="s">
         <v>55</v>
       </c>
       <c r="Z172" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z167,AB167),X167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z167,"^",AB167,"  ",X167))</f>
+        <f>IFERROR(MOD(POWER(Z167,AB167),X167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z167,"^",AB167,"  ",X167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
@@ -5784,28 +5784,28 @@
         <v>46</v>
       </c>
       <c r="Q173" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S167,U167),Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S167,"^",U167,"  ",Q167))</f>
+        <f>IFERROR(MOD(POWER(S167,U167),Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",S167,"^",U167,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="R173" s="6" t="s">
         <v>46</v>
       </c>
       <c r="S173" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S167,U167),Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S167,"^",U167,"  ",Q167))</f>
+        <f>IFERROR(MOD(POWER(S167,U167),Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",S167,"^",U167,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  ^  17</v>
       </c>
       <c r="W173" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X173" s="7" t="str">
-        <f>IFERROR(MOD((AB169-(X168*X172))*AB168,(X167-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB169,"-(",X168,"*",X172,"))","*",AB168,"(",X167-1,")","  ",X167-1))</f>
+        <f>IFERROR(MOD((AB169-(X168*X172))*AB168,(X167-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB169,"-(",X168,"*",X172,"))","*",AB168,"(",X167-1,")","  ",X167-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
       <c r="Y173" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Z173" s="7" t="str">
-        <f>IFERROR(MOD((AB169-(Z168*X172))*AB168,(X167-1)), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ", "(",AB169,"-(",Z168,"*",X172,"))","*",AB168,"(",X167-1,")","  ",X167-1))</f>
+        <f>IFERROR(MOD((AB169-(Z168*X172))*AB168,(X167-1)), CONCATENATE("https://es.planetcalc.com/8326/","  ", "(",AB169,"-(",Z168,"*",X172,"))","*",AB168,"(",X167-1,")","  ",X167-1))</f>
         <v>https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1</v>
       </c>
     </row>
@@ -5814,42 +5814,42 @@
         <v>12</v>
       </c>
       <c r="C174" s="7" t="str">
-        <f>IFERROR(MOD(POWER(E172,C168),E167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",E172,"^",C168,"  ",E167))</f>
+        <f>IFERROR(MOD(POWER(E172,C168),E167), CONCATENATE("https://es.planetcalc.com/8326/","  ",E172,"^",C168,"  ",E167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="D174" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E174" s="7" t="str">
-        <f>IFERROR(MOD(POWER(C172,E168),E167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",C172,"^",E168,"  ",E167))</f>
+        <f>IFERROR(MOD(POWER(C172,E168),E167), CONCATENATE("https://es.planetcalc.com/8326/","  ",C172,"^",E168,"  ",E167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  ^  </v>
       </c>
       <c r="G174" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H174" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L173,H169),L168), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L173,"^",H169,"  ",L168))</f>
+        <f>IFERROR(MOD(POWER(L173,H169),L168), CONCATENATE("https://es.planetcalc.com/8326/","  ",L173,"^",H169,"  ",L168))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J174" s="7" t="str">
-        <f>IFERROR(MOD(POWER(L173,J169),L169), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",L173,"^",J169,"  ",L169))</f>
+        <f>IFERROR(MOD(POWER(L173,J169),L169), CONCATENATE("https://es.planetcalc.com/8326/","  ",L173,"^",J169,"  ",L169))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  0^  0</v>
       </c>
       <c r="P174" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q174" s="7" t="str">
-        <f>IFERROR(MOD(U168*Q172,Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U168,"*",Q172,"  ",Q167))</f>
+        <f>IFERROR(MOD(U168*Q172,Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",U168,"*",Q172,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="R174" s="6" t="s">
         <v>47</v>
       </c>
       <c r="S174" s="7" t="str">
-        <f>IFERROR(MOD(U168*S172,Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",U168,"*",S172,"  ",Q167))</f>
+        <f>IFERROR(MOD(U168*S172,Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",U168,"*",S172,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17</v>
       </c>
       <c r="W174" t="s">
@@ -5899,28 +5899,28 @@
         <v>12</v>
       </c>
       <c r="Q177" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Q173,S168),Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q173,"^",S168,"  ",Q167))</f>
+        <f>IFERROR(MOD(POWER(Q173,S168),Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q173,"^",S168,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="R177" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S177" s="7" t="str">
-        <f>IFERROR(MOD(POWER(S173,Q168),Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S173,"^",Q168,"  ",Q167))</f>
+        <f>IFERROR(MOD(POWER(S173,Q168),Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",S173,"^",Q168,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17</v>
       </c>
       <c r="W177" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X177" s="7" t="str">
-        <f>IFERROR(MOD(POWER(X169,X172)*POWER(X172,X173),X167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",X169,"^",X172,")*",X172,"^",X173,")"," ",X167))</f>
+        <f>IFERROR(MOD(POWER(X169,X172)*POWER(X172,X173),X167), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",X169,"^",X172,")*",X172,"^",X173,")"," ",X167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
       <c r="Y177" s="6" t="s">
         <v>70</v>
       </c>
       <c r="Z177" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z169,Z172)*POWER(Z172,Z173),X167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ","(",Z169,"^",Z172,")*",Z172,"^",Z173,")"," ",X167))</f>
+        <f>IFERROR(MOD(POWER(Z169,Z172)*POWER(Z172,Z173),X167), CONCATENATE("https://es.planetcalc.com/8326/","  ","(",Z169,"^",Z172,")*",Z172,"^",Z173,")"," ",X167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  (https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  ^  )*https://es.planetcalc.com/8326/  ^  ^https://es.planetcalc.com/8326/  (-(*https://es.planetcalc.com/8326/  ^  ))*(-1)  -1) </v>
       </c>
     </row>
@@ -5929,28 +5929,28 @@
         <v>48</v>
       </c>
       <c r="Q178" s="7" t="str">
-        <f>IFERROR(MOD(Q179*Q174,Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Q179,"*",Q174,"  ",Q167))</f>
+        <f>IFERROR(MOD(Q179*Q174,Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Q179,"*",Q174,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  3*https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="R178" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S178" s="7" t="str">
-        <f>IFERROR(MOD(S179*S174,Q167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",S179,"*",S174,"  ",Q167))</f>
+        <f>IFERROR(MOD(S179*S174,Q167), CONCATENATE("https://es.planetcalc.com/8326/","  ",S179,"*",S174,"  ",Q167))</f>
         <v>https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  *https://es.planetcalc.com/8326/  https://es.planetcalc.com/8326/  ^  17^  17  17  17</v>
       </c>
       <c r="W178" s="6" t="s">
         <v>72</v>
       </c>
       <c r="X178" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z167,AB169),X167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z167,"^",AB169,"  ",X167))</f>
+        <f>IFERROR(MOD(POWER(Z167,AB169),X167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z167,"^",AB169,"  ",X167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
       <c r="Y178" s="6" t="s">
         <v>69</v>
       </c>
       <c r="Z178" s="7" t="str">
-        <f>IFERROR(MOD(POWER(Z167,AB169),X167), _xlfn.CONCAT("https://es.planetcalc.com/8326/","  ",Z167,"^",AB169,"  ",X167))</f>
+        <f>IFERROR(MOD(POWER(Z167,AB169),X167), CONCATENATE("https://es.planetcalc.com/8326/","  ",Z167,"^",AB169,"  ",X167))</f>
         <v xml:space="preserve">https://es.planetcalc.com/8326/  ^  </v>
       </c>
     </row>
